--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcLoanInt.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcLoanInt.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D64A90-0521-47F3-A0D3-FA5D804BA6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -226,14 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CdAcCode 會計科子細目設定檔
-IC1 短擔息
-IC2 中擔息
-IC3 長擔息
-IC4 三十年房貸息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>帳齡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,15 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">以放款主檔的下次應繳日~本營業日計算
-0.一個月以下
-1.一～三個月
-2.三～六個月
-3.六個月以上
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AcBookCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,14 +350,6 @@
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00A：傳統帳冊                           201:利變年金帳冊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000：全公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -374,12 +359,38 @@
   <si>
     <t xml:space="preserve">AcctCode ASC, Aging ASC, AcBookCode ASC, AcSubBookCode ASC, CustNo ASC, FacmNo ASC, BormNo ASC </t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdAcCode 會計科子細目設定檔
+IC1:短擔息
+IC2:中擔息
+IC3:長擔息
+IC4:三十年房貸息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">以放款主檔的下次應繳日~本營業日計算
+0:一個月以下
+1:一～三個月
+2:三～六個月
+3:六個月以上
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000:全公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00A:傳統帳冊
+201:利變年金帳冊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -747,6 +758,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -782,6 +810,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -957,11 +1002,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1016,7 +1061,7 @@
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>15</v>
@@ -1136,7 +1181,7 @@
         <v>43</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>38</v>
@@ -1157,7 +1202,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>38</v>
@@ -1178,7 +1223,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>38</v>
@@ -1196,10 +1241,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>38</v>
@@ -1209,7 +1254,7 @@
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H13" s="5"/>
     </row>
@@ -1222,7 +1267,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>37</v>
@@ -1243,7 +1288,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>37</v>
@@ -1264,7 +1309,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>38</v>
@@ -1287,7 +1332,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>38</v>
@@ -1333,7 +1378,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>38</v>
@@ -1445,7 +1490,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>52</v>
@@ -1458,7 +1503,7 @@
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="19" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -1467,10 +1512,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>37</v>
@@ -1480,7 +1525,7 @@
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1504,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H26" s="5"/>
     </row>
@@ -1514,10 +1559,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="21" t="s">
         <v>38</v>
@@ -1527,7 +1572,7 @@
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="19" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="H27" s="5"/>
     </row>
@@ -1537,10 +1582,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>53</v>
@@ -1549,10 +1594,10 @@
         <v>3</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="20" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -1561,20 +1606,20 @@
         <v>21</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E29" s="26">
         <v>3</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -1583,10 +1628,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D30" s="21" t="s">
         <v>53</v>
@@ -1625,7 +1670,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D32" s="21" t="s">
         <v>53</v>
@@ -1665,7 +1710,7 @@
         <v>35</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>53</v>
@@ -1694,10 +1739,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
@@ -1723,13 +1768,13 @@
     </row>
     <row r="2" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
